--- a/ocms/src/test/resources/TestData/OCMAgentSummaryReportData.xlsx
+++ b/ocms/src/test/resources/TestData/OCMAgentSummaryReportData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4E6960-563A-49E1-858E-5649780450B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838979F2-83F6-41D6-A9A4-311AFADD611D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,11 +18,17 @@
     <sheet name="Invalid" sheetId="9" r:id="rId8"/>
     <sheet name="Queries" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -109,12 +115,6 @@
   </si>
   <si>
     <t>Query</t>
-  </si>
-  <si>
-    <t>'14-04-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>15-04-2020 00:00:00</t>
   </si>
   <si>
     <t>SELECT M.[AgentID] as 'Agent ID', A.[AgentName] as 'Agent Name' ,A.TeamName as 'Team Name',A.SupervisorName 'Supervisor Name' ,SUM([TotalInteraction]) [Total Interaction] ,SUM([TotalVoice]) [Total Voice],SUM(TotalChat) [Total Chat],
@@ -130,16 +130,16 @@
 [dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalChatTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalChatTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar, DATEADD(ms, M.TotalChatTime* 1000, 0), 108)))/nullif(SUM([TotalChat]),0),0)) as [Avg Chat Time],
 [dbo].[SECONDSTOhhmmss](SUM(DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalSMTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalSMTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar, DATEADD(ms, M.TotalSMTime* 1000, 0), 108)))) as [Total SM Time],
 [dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,[TotalSMTime]) * 3600 +DATEPART(mi, [TotalSMTime]) * 60 + DATEPART(ss,[TotalSMTime]))/nullif(SUM(TotalSM),0),0))as [Avg SM Time] ,  
-[dbo].[SECONDSTOhhmmss](SUM(DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalSMSTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalSMSTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar, DATEADD(ms, M.TotalSMSTime* 1000, 0), 108)))) as [TotalSMSTime],
+[dbo].[SECONDSTOhhmmss](SUM(DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalSMSTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalSMSTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar, DATEADD(ms, M.TotalSMSTime* 1000, 0), 108)))) as [Total SMS Time],
 [dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalSMSTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalSMSTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar, DATEADD(ms, M.TotalSMSTime* 1000, 0), 108)))/nullif(SUM([TotalSMS]),0),0)) as [Avg SMS Time],
 [dbo].[SECONDSTOhhmmss](SUM(DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalFaxTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalFaxTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar, DATEADD(ms, M.TotalFaxTime* 1000, 0), 108)))) as [Total Fax Time],	
 [dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalFaxTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalFaxTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar, DATEADD(ms, M.TotalFaxTime* 1000, 0), 108)))/nullif(SUM([TotalFax]),0),0)) as [Avg Fax Time],
 [dbo].[SECONDSTOhhmmss](SUM(DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalEmailTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalEmailTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar, DATEADD(ms, M.TotalEmailTime* 1000, 0), 108)))) as [Total Email Time],
 [dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,[TotalEmailTime]) * 3600 +DATEPART(mi, [TotalEmailTime]) * 60 + DATEPART(ss,[TotalEmailTime]))/nullif(SUM(TotalEmail),0),0))as [Avg Email Time] ,  
 [dbo].[SECONDSTOhhmmss](SUM(DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalAudioIPTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalAudioIPTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar, DATEADD(ms, M.TotalAudioIPTime* 1000, 0), 108)))) as [Total Audio IP Time],
-[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,[TotalAudioIPTime]) * 3600 +DATEPART(mi, [TotalAudioIPTime]) * 60 + DATEPART(ss,[TotalAudioIPTime]))/nullif(SUM([TotalAudioIP]),0),0))as [Avg Audio IP Time] ,  
+[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalAudioIPTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalAudioIPTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar, DATEADD(ms, M.TotalAudioIPTime* 1000, 0), 108)))/nullif(SUM([TotalAudioIP]),0),0)) as [Avg Audio IP Time],  
 [dbo].[SECONDSTOhhmmss](SUM(DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalVideoIPTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalVideoIPTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar, DATEADD(ms, M.TotalVideoIPTime* 1000, 0), 108)))) as [Total Video IP Time],
-[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,[TotalVideoIPTime]) * 3600 +DATEPART(mi, [TotalVideoIPTime]) * 60 + DATEPART(ss,[TotalVideoIPTime]))/nullif(SUM([TotalVideoIP]),0),0))as [Avg Video IP Time] ,  
+[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalVideoIPTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalVideoIPTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar, DATEADD(ms, M.TotalVideoIPTime* 1000, 0), 108)))/nullif(SUM([TotalVideoIP]),0),0)) as [Avg Video IP Time],  
 SUM(TotalExtIn)as [Total Ext In] ,SUM(TotalExtOut) as [Total Ext Out] ,SUM(TotalTransferIn) as [Total Transfer In] ,SUM(TotalTransferOut) as [Total Transfer Out] ,SUM(TotalConferenceIn) as [Total Conference In] ,  SUM(TotalConferenceOut) as [Total Conference Out] 
 From (Select TAB2.AgentID as AgentID, Isnull(FirstName,'')+' '+isnull(LastName,'') AgentName,TAB2.StationID,TAB2.LoginDateTime as LoginDateTime,TAB2.LogoutDateTime as LogoutDateTime,
 		TAB2.SkillList, Isnull(TAB2.TotalStaffedTime,0) as TotalStaffedTime,Skills.SkillLists AS SkillNameList, 
@@ -216,6 +216,12 @@
 		) M  INNER JOIN fn_AgentHierarchy('na',1,1) A on A.AgentId=M.AgentID
 		GROUP BY M.[AgentID],A.[AgentName],A.TeamName,A.SupervisorName</t>
   </si>
+  <si>
+    <t>17-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>20-04-2020 00:00:00</t>
+  </si>
 </sst>
 </file>
 
@@ -255,7 +261,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1079,11 +1085,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858C1458-96B4-4219-82C1-A3686CB1F353}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9BEA1B-292C-4763-9962-916BCAE6B37B}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1091,9 +1097,8 @@
     <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+    <col min="4" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -1126,14 +1131,14 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/OCMAgentSummaryReportData.xlsx
+++ b/ocms/src/test/resources/TestData/OCMAgentSummaryReportData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23385" windowHeight="8040" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18375" windowHeight="8040" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Quer" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A2:I25"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -577,7 +578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -942,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ocms/src/test/resources/TestData/OCMAgentSummaryReportData.xlsx
+++ b/ocms/src/test/resources/TestData/OCMAgentSummaryReportData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18375" windowHeight="8040" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18375" windowHeight="8025" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Quer" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A2:I25"/>
+  <oleSize ref="B1:J24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="43">
   <si>
     <t>Report Channel</t>
   </si>
@@ -155,6 +155,33 @@
   </si>
   <si>
     <t>Line Agent1</t>
+  </si>
+  <si>
+    <t>Is not equal to</t>
+  </si>
+  <si>
+    <t>Does not contain</t>
+  </si>
+  <si>
+    <t>Starts with</t>
+  </si>
+  <si>
+    <t>Ends with</t>
+  </si>
+  <si>
+    <t>Team Name</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -941,22 +968,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1015,6 +1043,151 @@
       </c>
       <c r="I2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/OCMAgentSummaryReportData.xlsx
+++ b/ocms/src/test/resources/TestData/OCMAgentSummaryReportData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18375" windowHeight="8025" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18045" windowHeight="8040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Quer" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="B1:J24"/>
+  <oleSize ref="A1:I24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="53">
   <si>
     <t>Report Channel</t>
   </si>
@@ -183,18 +183,54 @@
   <si>
     <t>a</t>
   </si>
+  <si>
+    <t>GetNumber</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>GetCalendarType</t>
+  </si>
+  <si>
+    <t>second(s)</t>
+  </si>
+  <si>
+    <t>minute(s)</t>
+  </si>
+  <si>
+    <t>hour(s)</t>
+  </si>
+  <si>
+    <t>day(s)</t>
+  </si>
+  <si>
+    <t>week(s)</t>
+  </si>
+  <si>
+    <t>month(s)</t>
+  </si>
+  <si>
+    <t>year(s)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -217,13 +253,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,10 +640,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,9 +655,11 @@
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,8 +684,14 @@
       <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -672,7 +717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -698,7 +743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -724,7 +769,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -750,7 +795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -776,7 +821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -802,8 +847,59 @@
         <v>31</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J11" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -970,7 +1066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/OCMAgentSummaryReportData.xlsx
+++ b/ocms/src/test/resources/TestData/OCMAgentSummaryReportData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18045" windowHeight="8040" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18030" windowHeight="8040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="57">
   <si>
     <t>Report Channel</t>
   </si>
@@ -212,6 +212,18 @@
   </si>
   <si>
     <t>year(s)</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
 </sst>
 </file>
@@ -643,7 +655,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,31 +880,103 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="J9" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="J10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="J11" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="J12" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="J13" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="J14" s="4" t="s">
         <v>52</v>
       </c>

--- a/ocms/src/test/resources/TestData/OCMAgentSummaryReportData.xlsx
+++ b/ocms/src/test/resources/TestData/OCMAgentSummaryReportData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{32E604AF-99FD-4A2D-8A94-19EBD7B279A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="3860" windowWidth="14400" windowHeight="7360" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18090" windowHeight="4740" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Quer" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="B1:G11"/>
+  <oleSize ref="C1:Q24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="66">
   <si>
     <t>Report Channel</t>
   </si>
@@ -188,64 +187,76 @@
     <t>GetNumber</t>
   </si>
   <si>
+    <t>GetCalendarType</t>
+  </si>
+  <si>
+    <t>second(s)</t>
+  </si>
+  <si>
+    <t>minute(s)</t>
+  </si>
+  <si>
+    <t>hour(s)</t>
+  </si>
+  <si>
+    <t>day(s)</t>
+  </si>
+  <si>
+    <t>week(s)</t>
+  </si>
+  <si>
+    <t>month(s)</t>
+  </si>
+  <si>
+    <t>year(s)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>GetCalendarType</t>
-  </si>
-  <si>
-    <t>second(s)</t>
-  </si>
-  <si>
-    <t>minute(s)</t>
-  </si>
-  <si>
-    <t>hour(s)</t>
-  </si>
-  <si>
-    <t>day(s)</t>
-  </si>
-  <si>
-    <t>week(s)</t>
-  </si>
-  <si>
-    <t>month(s)</t>
-  </si>
-  <si>
-    <t>year(s)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>Search String1</t>
   </si>
   <si>
     <t>Search String2</t>
   </si>
   <si>
-    <t>Murali</t>
-  </si>
-  <si>
-    <t>Search String1</t>
+    <t xml:space="preserve">Murali </t>
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>DeleteReason</t>
+  </si>
+  <si>
+    <t>Delete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -568,22 +579,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,8 +607,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -609,6 +623,9 @@
       </c>
       <c r="D2" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -618,22 +635,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,7 +664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -667,27 +684,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" customWidth="1"/>
-    <col min="9" max="9" width="15.81640625" customWidth="1"/>
-    <col min="10" max="10" width="20.1796875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,10 +734,13 @@
         <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -744,8 +765,11 @@
       <c r="H2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -771,7 +795,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -797,7 +821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -823,7 +847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -849,7 +873,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -875,7 +899,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -885,150 +909,147 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
       <c r="I8" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J8" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="3" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="J15" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1038,22 +1059,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1093,22 +1114,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1125,7 +1146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1148,22 +1169,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1177,7 +1198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1197,29 +1218,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" customWidth="1"/>
-    <col min="9" max="9" width="18.26953125" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1248,13 +1267,13 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
         <v>60</v>
       </c>
-      <c r="K1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1283,13 +1302,13 @@
         <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1317,8 +1336,11 @@
       <c r="I3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1347,7 +1369,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1376,7 +1398,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1405,7 +1427,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1441,24 +1463,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.54296875" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" customWidth="1"/>
-    <col min="6" max="6" width="66.1796875" customWidth="1"/>
+    <col min="1" max="1" width="66.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="66.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1478,7 +1500,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1504,12 +1526,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ocms/src/test/resources/TestData/OCMAgentSummaryReportData.xlsx
+++ b/ocms/src/test/resources/TestData/OCMAgentSummaryReportData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F17354-601A-415A-A485-CB1E0278AFA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18090" windowHeight="4740" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -14,11 +15,9 @@
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId5"/>
     <sheet name="ExportReport" sheetId="3" r:id="rId6"/>
     <sheet name="AdvanceSearch" sheetId="7" r:id="rId7"/>
-    <sheet name="Queries" sheetId="8" r:id="rId8"/>
-    <sheet name="Quer" sheetId="9" r:id="rId9"/>
+    <sheet name="Queries" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="C1:Q24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="69">
   <si>
     <t>Report Channel</t>
   </si>
@@ -45,9 +44,6 @@
     <t>Single Date</t>
   </si>
   <si>
-    <t>random.str</t>
-  </si>
-  <si>
     <t>Date Range</t>
   </si>
   <si>
@@ -96,34 +92,6 @@
     <t>Query</t>
   </si>
   <si>
-    <t>SELECT M.[AgentID] ,A.[AgentName],SUM([TotalInteraction]) [TotalInteraction],SUM(TotalVoice) TotalVoice,SUM(TotalChat) TotalChat,SUM(TotalSM) TotalSM ,   SUM([TotalAudioIP]) [TotalAudioIP],
-SUM([TotalVideoIP]) [TotalVideoIP],SUM(TotalSMS) TotalSMS,SUM(isnull(TotalFax,0)) TotalFax,SUM(TotalEmail) TotalEmail,    
-[dbo].[SECONDSTOhhmmss](SUM ( DATEPART(hh,TotalStaffedTime) * 3600 +DATEPART(mi, TotalStaffedTime) * 60 + DATEPART(ss,TotalStaffedTime))) as [TotalStaffedTime] ,     
-[dbo].[SECONDSTOhhmmss](SUM ( DATEPART(hh,TotalInteractionTime) * 3600 +DATEPART(mi, TotalInteractionTime) * 60 + DATEPART(ss,TotalInteractionTime)))as [TotalInteractionTime] ,   
-[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,TotalInteractionTime) * 3600 +DATEPART(mi, TotalInteractionTime) * 60 + DATEPART(ss,TotalInteractionTime))/nullif(SUM([TotalInteraction]),0),0))as [AvgInteractionTime] ,
-[dbo].[SECONDSTOhhmmss](SUM ( DATEPART(hh,TotalACWTime) * 3600 +DATEPART(mi, TotalACWTime) * 60 + DATEPART(ss,TotalACWTime)))as [TotalACWTime] ,   
-[dbo].[SECONDSTOhhmmss](SUM ( DATEPART(hh,TotalAuxTime) * 3600 +DATEPART(mi, TotalAuxTime) * 60 + DATEPART(ss,TotalAuxTime))) AS [TotalAuxTime],      
-[dbo].[SECONDSTOhhmmss](SUM ( DATEPART(hh,[TotalVoiceTime]) * 3600 +DATEPART(mi, [TotalVoiceTime]) * 60 + DATEPART(ss,[TotalVoiceTime])))as [TotalVoiceTime] ,  
-[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,[TotalVoiceTime]) * 3600 +DATEPART(mi, [TotalVoiceTime]) * 60 + DATEPART(ss,[TotalVoiceTime]))/nullif(SUM(TotalVoice),0),0))as [AvgVoiceTime] ,    
-[dbo].[SECONDSTOhhmmss](SUM ( DATEPART(hh,[TotalChatTime]) * 3600 +DATEPART(mi, [TotalChatTime]) * 60 + DATEPART(ss,[TotalChatTime])))as [TotalChatTime] ,  
-[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,[TotalChatTime]) * 3600 +DATEPART(mi, [TotalChatTime]) * 60 + DATEPART(ss,[TotalChatTime]))/nullif(SUM(TotalChat),0),0))as [AvgChatTime] ,     
-[dbo].[SECONDSTOhhmmss](SUM ( DATEPART(hh,[TotalSMTime]) * 3600 +DATEPART(mi, [TotalSMTime]) * 60 + DATEPART(ss,[TotalSMTime])))as [TotalSMTime] ,  
-[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,[TotalSMTime]) * 3600 +DATEPART(mi, [TotalSMTime]) * 60 + DATEPART(ss,[TotalSMTime]))/nullif(SUM(TotalSM),0),0))as [AvgSMTime] ,  
-[dbo].[SECONDSTOhhmmss](SUM ( DATEPART(hh,[TotalSMSTime]) * 3600 +DATEPART(mi, [TotalSMSTime]) * 60 + DATEPART(ss,[TotalSMSTime])))as [TotalSMSTime] ,   
-[dbo].[SECONDSTOhhmmss](SUM ( DATEPART(hh,[TotalFaxTime]) * 3600 +DATEPART(mi, [TotalFaxTime]) * 60 + DATEPART(ss,[TotalFaxTime])))as [TotalFaxTime] ,  
-[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,[TotalSMSTime]) * 3600 +DATEPART(mi, [TotalSMSTime]) * 60 + DATEPART(ss,[TotalSMSTime]))/nullif(SUM(TotalSMS),0),0))as [AvgSMSTime] ,  
-[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,[TotalFaxTime]) * 3600 +DATEPART(mi, [TotalFaxTime]) * 60 + DATEPART(ss,[TotalFaxTime]))/nullif(SUM(TotalFax),0),0))as [AvgFaxTime] ,    
-[dbo].[SECONDSTOhhmmss](SUM ( DATEPART(hh,[TotalEmailTime]) * 3600 +DATEPART(mi, [TotalEmailTime]) * 60 + DATEPART(ss,[TotalEmailTime])))as [TotalEmailTime] ,   
-[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,[TotalEmailTime]) * 3600 +DATEPART(mi, [TotalEmailTime]) * 60 + DATEPART(ss,[TotalEmailTime]))/nullif(SUM(TotalEmail),0),0))as [AvgEmailTime] ,   
-[dbo].[SECONDSTOhhmmss](SUM ( DATEPART(hh,[TotalAudioIPTime]) * 3600 +DATEPART(mi, [TotalAudioIPTime]) * 60 + DATEPART(ss,[TotalAudioIPTime])))as [TotalAudioIPTime] ,  
-[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,[TotalAudioIPTime]) * 3600 +DATEPART(mi, [TotalAudioIPTime]) * 60 + DATEPART(ss,[TotalAudioIPTime]))/nullif(SUM([TotalAudioIP]),0),0))as [AvgAudioIPTime] ,    
-[dbo].[SECONDSTOhhmmss](SUM ( DATEPART(hh,[TotalVideoIPTime]) * 3600 +DATEPART(mi, [TotalVideoIPTime]) * 60 + DATEPART(ss,[TotalVideoIPTime])))as [TotalVideoIPTime] ,   
-[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,[TotalVideoIPTime]) * 3600 +DATEPART(mi, [TotalVideoIPTime]) * 60 + DATEPART(ss,[TotalVideoIPTime]))/nullif(SUM([TotalVideoIP]),0),0))as [AvgVideoIPTime] ,  
-SUM(TotalExtIn)as [TotalExtIn] ,SUM(TotalExtOut) as [TotalExtOut] ,SUM(TotalTransferIn) as [TotalTransferIn] ,SUM(TotalTransferOut) as [TotalTransferOut] ,SUM(TotalConferenceIn) as [TotalConferenceIn] , 
-SUM(TotalConferenceOut) as [TotalConferenceOut] ,   A.TeamName,A.SupervisorName FROM [dbo].[OCM_AgentSummaryReport] M WITH(NOLOCK)   INNER JOIN fn_AgentHierarchy('na','1','1') A  ON A.AgentId=M.[AgentID]   
-WHERE [ReportDateTime] &gt;='2020-01-23 00:00:00'  AND [ReportDateTime]&lt;='2020-01-29 23:59:00'       GROUP BY M.[AgentID],A.[AgentName],A.TeamName,A.SupervisorName;</t>
-  </si>
-  <si>
     <t>X Y</t>
   </si>
   <si>
@@ -251,12 +219,143 @@
   </si>
   <si>
     <t>Delete</t>
+  </si>
+  <si>
+    <t>QueryDrillGridOne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT M.[AgentID] as 'Agent ID', A.[AgentName] as 'Agent Name' ,A.TeamName as 'Team Name',A.SupervisorName 'Supervisor Name' ,SUM([TotalInteraction]) [Total Interaction] ,SUM([TotalVoice]) [Total Voice],SUM(TotalChat) [Total Chat],
+SUM([TotalAudioIP]) [Total Audio IP],SUM([TotalVideoIP]) [Total Video IP],SUM(TotalSM) [Total SM],SUM(TotalSMS) [Total SMS],SUM(isnull(TotalFax,0)) [Total Fax],SUM(TotalEmail) [Total Email],  
+[dbo].[SECONDSTOhhmmss](SUM ( DATEPART(hh,CONVERT(varchar, DATEADD(ms,M.TotalStaffedTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalStaffedTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar,DATEADD(ms,M.TotalStaffedTime* 1000, 0), 108)))) as [Total Staffed Time] ,     
+[dbo].[SECONDSTOhhmmss](SUM ( DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalInteractionTime* 1000, 0), 108)) * 3600 +DATEPART(mi,CONVERT(varchar, DATEADD(ms, M.TotalInteractionTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar,DATEADD(ms,M.TotalInteractionTime* 1000, 0), 108))))as [Total Interaction Time] ,   
+[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalInteractionTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalInteractionTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar, DATEADD(ms, M.TotalInteractionTime* 1000, 0), 108)))/nullif(SUM([TotalInteraction]),0),0)) as [Avg Interaction Time],
+[dbo].[SECONDSTOhhmmss](SUM(DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalACWTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalACWTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar, DATEADD(ms, M.TotalACWTime* 1000, 0), 108)))) as [Total ACW Time], 
+[dbo].[SECONDSTOhhmmss](SUM(DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalAuxTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalAuxTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar, DATEADD(ms, M.TotalAuxTime* 1000, 0), 108)))) as [Total Aux Time],
+[dbo].[SECONDSTOhhmmss](SUM(DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalVoiceTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalVoiceTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar, DATEADD(ms, M.TotalVoiceTime* 1000, 0), 108)))) as [Total Voice Time], 
+[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,[TotalVoiceTime]) * 3600 +DATEPART(mi, [TotalVoiceTime]) * 60 + DATEPART(ss,[TotalVoiceTime]))/nullif(SUM(TotalVoice),0),0))as [Avg Voice Time] ,  
+[dbo].[SECONDSTOhhmmss](SUM(DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalChatTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalChatTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar, DATEADD(ms, M.TotalChatTime* 1000, 0), 108)))) as [Total Chat Time],  
+[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalChatTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalChatTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar, DATEADD(ms, M.TotalChatTime* 1000, 0), 108)))/nullif(SUM([TotalChat]),0),0)) as [Avg Chat Time],
+[dbo].[SECONDSTOhhmmss](SUM(DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalSMTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalSMTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar, DATEADD(ms, M.TotalSMTime* 1000, 0), 108)))) as [Total SM Time],
+[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,[TotalSMTime]) * 3600 +DATEPART(mi, [TotalSMTime]) * 60 + DATEPART(ss,[TotalSMTime]))/nullif(SUM(TotalSM),0),0))as [Avg SM Time] ,  
+[dbo].[SECONDSTOhhmmss](SUM(DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalSMSTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalSMSTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar, DATEADD(ms, M.TotalSMSTime* 1000, 0), 108)))) as [Total SMS Time],
+[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalSMSTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalSMSTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar, DATEADD(ms, M.TotalSMSTime* 1000, 0), 108)))/nullif(SUM([TotalSMS]),0),0)) as [Avg SMS Time],
+[dbo].[SECONDSTOhhmmss](SUM(DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalFaxTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalFaxTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar, DATEADD(ms, M.TotalFaxTime* 1000, 0), 108)))) as [Total Fax Time], 
+[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalFaxTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalFaxTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar, DATEADD(ms, M.TotalFaxTime* 1000, 0), 108)))/nullif(SUM([TotalFax]),0),0)) as [Avg Fax Time],
+[dbo].[SECONDSTOhhmmss](SUM(DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalEmailTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalEmailTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar, DATEADD(ms, M.TotalEmailTime* 1000, 0), 108)))) as [Total Email Time],
+[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,[TotalEmailTime]) * 3600 +DATEPART(mi, [TotalEmailTime]) * 60 + DATEPART(ss,[TotalEmailTime]))/nullif(SUM(TotalEmail),0),0))as [Avg Email Time] ,  
+[dbo].[SECONDSTOhhmmss](SUM(DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalAudioIPTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalAudioIPTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar, DATEADD(ms, M.TotalAudioIPTime* 1000, 0), 108)))) as [Total Audio IP Time],
+[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalAudioIPTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalAudioIPTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar, DATEADD(ms, M.TotalAudioIPTime* 1000, 0), 108)))/nullif(SUM([TotalAudioIP]),0),0)) as [Avg Audio IP Time],  
+[dbo].[SECONDSTOhhmmss](SUM(DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalVideoIPTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalVideoIPTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar, DATEADD(ms, M.TotalVideoIPTime* 1000, 0), 108)))) as [Total Video IP Time],
+[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalVideoIPTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalVideoIPTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar, DATEADD(ms, M.TotalVideoIPTime* 1000, 0), 108)))/nullif(SUM([TotalVideoIP]),0),0)) as [Avg Video IP Time],  
+SUM(TotalExtIn)as [Total Ext In] ,SUM(TotalExtOut) as [Total Ext Out] ,SUM(TotalTransferIn) as [Total Transfer In] ,SUM(TotalTransferOut) as [Total Transfer Out] ,SUM(TotalConferenceIn) as [Total Conference In] ,  SUM(TotalConferenceOut) as [Total Conference Out] 
+From (Select TAB2.AgentID as AgentID, Isnull(FirstName,'')+' '+isnull(LastName,'') AgentName,TAB2.StationID,TAB2.LoginDateTime as LoginDateTime,TAB2.LogoutDateTime as LogoutDateTime,
+  TAB2.SkillList, Isnull(TAB2.TotalStaffedTime,0) as TotalStaffedTime,Skills.SkillLists AS SkillNameList, 
+  Isnull(SUM(TotalACWTime),0) TotalACWTime, Isnull(isnull(TAB2.TotalStaffedTime,0) - (isnull(SUM(TotalInteractionTime),0) + isnull(SUM(TotalACWTime),0)),0) TotalAuxTime,
+  Isnull(SUM(TotalInteraction),0) TotalInteraction,Isnull(SUM(TotalInteractionTime)+SUM(TotalInteractionHoldTime),0) TotalInteractionTime,
+  Isnull(SUM(TotalVoice),0) TotalVoice,Isnull(SUM(TotalVoiceTime)+SUM(TotalVoiceHoldTime),0) TotalVoiceTime,
+  Isnull(SUM(TotalEmail),0) TotalEmail,Isnull(SUM(TotalEmailTime)+SUM(TotalEmailHoldTime),0) TotalEmailTime,
+  Isnull(SUM(TotalChat),0)TotalChat,Isnull(SUM(TotalChatTime)+SUM(TotalChatHoldTime),0) TotalChatTime,
+  Isnull(SUM(TotalSMS),0)TotalSMS,Isnull(SUM(TotalSMSTime)+SUM(TotalSMSHoldTime),0) TotalSMSTime,
+  Isnull(SUM(TotalFax),0)TotalFax,Isnull(SUM(TotalFaxTime)+SUM(TotalFaxHoldTime),0) TotalFaxTime,
+  Isnull(SUM(TotalSM),0)TotalSM,Isnull(SUM(TotalSMTime)+SUM(TotalSMHoldTime),0) TotalSMTime,
+  Isnull(SUM(TotalAudioIP),0)TotalAudioIP,Isnull(SUM(TotalAudioIPTime)+SUM(TotalAudioIPHoldTime),0) TotalAudioIPTime,
+  Isnull(SUM(TotalVideoIP),0)TotalVideoIP,Isnull(SUM(TotalVideoIPTime)+SUM(TotalVideoIPHoldTime),0) TotalVideoIPTime,
+  Isnull(SUM(TotalExtIn),0)TotalExtIn,
+  Isnull(SUM(TotalExtOut),0)TotalExtOut,Isnull(SUM(TotalTranIn),0)TotalTransferIn,Isnull(SUM(TotalTranOut),0) TotalTransferOut,
+  Isnull(SUM(TotalConfIn),0)TotalConferenceIn,Isnull(SUM(TotalConfOut),0)TotalConferenceOut FROM (
+  Select TMAC_Interactions.AgentID, ClosedDateTime,
+  TotalInteraction = CASE WHEN Channel IN ('Voice','Chat','TextChat','FBPost','FBPrivate','Email','AudioChat','VideoChat','SMS','FAX') THEN  1 ELSE 0 END,
+  TotalInteractionTime = CASE WHEN Channel IN ('Voice','Chat','TextChat','FBPost','FBPrivate','Email','AudioChat','VideoChat','SMS','FAX') THEN  ActiveTime ELSE 0 END,
+  TotalInteractionHoldTime = CASE WHEN Channel IN ('Voice','Chat','TextChat','FBPost','FBPrivate','Email','AudioChat','VideoChat','SMS','FAX') THEN  HoldTime ELSE 0 END,
+  TotalACWTime  = CASE WHEN Channel IN ('Voice','Chat','TextChat','FBPost','FBPrivate','Email','AudioChat','VideoChat','SMS','FAX')  THEN ACWTime ELSE 0 END,
+  TotalVoice  = CASE WHEN (Channel='Voice' AND IsTransfered&lt;&gt;1 AND IsConferenced&lt;&gt;1) THEN 1 ELSE 0 END,
+  TotalEmail  = CASE WHEN (Channel='Email' AND IsTransfered&lt;&gt;1 AND IsConferenced&lt;&gt;1) THEN 1 ELSE 0 END,
+  TotalChat  = CASE WHEN (Channel IN ('Chat','TextChat') AND IsTransfered&lt;&gt;1 AND IsConferenced&lt;&gt;1) THEN 1 ELSE 0 END,
+  TotalSMS  = CASE WHEN (Channel='SMS' AND IsTransfered&lt;&gt;1 AND IsConferenced&lt;&gt;1) THEN 1 ELSE 0 END,
+  TotalFax  = CASE WHEN (Channel='FAX' AND IsTransfered&lt;&gt;1 AND IsConferenced&lt;&gt;1) THEN 1 ELSE 0 END,
+  TotalSM  = CASE WHEN (Channel IN ('FBPost','FBPrivate') AND IsTransfered&lt;&gt;1 AND IsConferenced&lt;&gt;1) THEN 1 ELSE 0 END,
+  TotalAudioIP  = CASE WHEN ((SubChannel='Audio' OR Channel='AudioChat') AND IsTransfered&lt;&gt;1 AND IsConferenced&lt;&gt;1) THEN 1 ELSE 0 END,
+  TotalVideoIP  = CASE WHEN ((SubChannel='Video' OR Channel='VideoChat') AND IsTransfered&lt;&gt;1 AND IsConferenced&lt;&gt;1) THEN 1 ELSE 0 END,
+  TotalVoiceTime  = CASE WHEN Channel='Voice' THEN ActiveTime ELSE 0 END,
+  TotalEmailTime  = CASE WHEN Channel='Email' THEN ActiveTime ELSE 0 END,
+  TotalChatTime  = CASE WHEN Channel IN ('Chat','TextChat') THEN ActiveTime ELSE 0 END,
+  TotalSMSTime  = CASE WHEN Channel='SMS' THEN ActiveTime ELSE 0 END,
+  TotalFaxTime  = CASE WHEN Channel='FAX' THEN ActiveTime ELSE 0 END,
+  TotalSMTime  = CASE WHEN Channel IN ('FBPost','FBPrivate') THEN ActiveTime ELSE 0 END,
+  TotalAudioIPTime  = CASE WHEN (SubChannel='Audio' OR Channel='AudioChat') THEN ActiveTime ELSE 0 END,
+  TotalVideoIPTime  = CASE WHEN (SubChannel='Video' OR Channel='VideoChat') THEN ActiveTime ELSE 0 END,
+  TotalVoiceHoldTime  = CASE WHEN Channel='Voice' THEN HoldTime ELSE 0 END,
+  TotalEmailHoldTime  = CASE WHEN Channel='Email' THEN HoldTime ELSE 0 END,
+  TotalChatHoldTime  = CASE WHEN Channel IN ('Chat','TextChat') THEN HoldTime ELSE 0 END,
+  TotalSMSHoldTime  = CASE WHEN Channel='SMS' THEN HoldTime ELSE 0 END,
+  TotalFaxHoldTime  = CASE WHEN Channel='FAX' THEN HoldTime ELSE 0 END,
+  TotalSMHoldTime  = CASE WHEN Channel IN ('FBPost','FBPrivate') THEN HoldTime ELSE 0 END,
+  TotalAudioIPHoldTime  = CASE WHEN (SubChannel='Audio' OR Channel='AudioChat') THEN HoldTime ELSE 0 END,
+  TotalVideoIPHoldTime  = CASE WHEN (SubChannel='Video' OR Channel='VideoChat') THEN HoldTime ELSE 0 END,
+  TotalExtIn  = CASE WHEN (CallType='2' AND Direction='In' AND Channel='Voice') THEN 1 ELSE 0 END,
+  TotalExtOut  = CASE WHEN (CallType='2' AND Direction='Out' AND Channel='Voice') THEN 1 ELSE 0 END,
+  TotalTranIn  = CASE WHEN IsTransfered='1' THEN 1 ELSE 0 END,
+  TotalTranOut  = CASE WHEN IsTranferedTo='1' THEN 1 ELSE 0 END,
+  TotalConfIn  = CASE WHEN IsConferenced='1' THEN 1 ELSE 0 END,
+  TotalConfOut = CASE WHEN IsConferencedTo='1' THEN 1 ELSE 0 END,LoginInstanceID
+  From TMAC_Interactions with(nolock) 
+  ) AS TAB1 
+  RIGHT JOIN
+  (SELECT  AgentID,LoginDateTime,LogoutDateTime,A.LoginInstanceID,
+  SUM(DATEDIFF(SECOND,CONVERT(datetime, STUFF(STUFF(STUFF(LoginDateTime, 9, 0, ' '), 12, 0, ':'), 15, 0, ':')),
+  CONVERT(datetime,STUFF(STUFF(STUFF(LogoutDateTime, 9, 0, ' '), 12, 0, ':'), 15, 0, ':')))) AS TotalStaffedTime,StationID,SkillList
+  FROM (SELECT DISTINCT AgentID,LoginDate+LoginTime AS LoginDateTime ,LogoutDate+LogoutTime AS LogoutDateTime,LoginInstanceID,StationID,SkillList
+  FROM AGT_Agent_TimeTrack A with(nolock) WHERE LogoutDate+LogoutTime&gt;='ReportBeforeDate' AND LogoutDate+LogoutTime&lt;='ReportAfterDate' 
+  )A Group by AgentID,StationID,SkillList,LoginDateTime,LogoutDateTime,LoginInstanceID) AS TAB2 
+  ON TAB2.AgentID=TAB1.AgentId AND TAB2.LoginInstanceID = TAB1.LoginInstanceID AND TAB1.ClosedDateTime between LoginDateTime AND LogoutDateTime 
+  INNER JOIN AGT_Agent A with(nolock) ON A.AvayaLoginID = TAB2.AgentID
+  CROSS APPLY 
+  (SELECT STUFF((SELECT ','+ SkillName from (
+  SELECT SkillName  FROM TMAC_Skills
+  WHERE SkillExtension in (Select Id from BreakStringIntoRows (TAB2.SkillList)) 
+  union
+  SELECT ID as SkillName FROM BreakStringIntoRows (TAB2.SkillList) WHERE ID NOT IN (SELECT SkillExtension from TMAC_Skills)) Skill order by SkillName desc
+  FOR XML PATH('')), 1, 1, '' ) SkillLists
+  ) AS Skills
+  Group by TAB2.AgentID,FirstName,LastName,TAB2.StationID,TAB2.LoginDateTime,TAB2.LogoutDateTime,TAB2.SkillList,
+  TAB2.TotalStaffedTime,Skills.SkillLists 
+  --ORDER BY LoginDateTime ASC
+  ) M  INNER JOIN fn_AgentHierarchy('na',1,1) A on A.AgentId=M.AgentID
+  GROUP BY M.[AgentID],A.[AgentName],A.TeamName,A.SupervisorName
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT [AgentID] as [Agent ID],[AgentName] as [Agent Name],[LoginDateTime] as [Login Date Time],[LogoutDateTime] as [Logout Date Time],[SkillList] as [Skill List],[SkillNameList] as [Skill Name List],
+[StationID] as [Station ID],[TotalVoice] as [Total Voice],[TotalInteraction] as [Total Interaction],[TotalChat] as [Total Chat],
+[TotalSM] as [Total SM],[TotalSMS] as [Total SMS],isnull([TotalFax],0) as [Total Fax],[TotalEmail] as [Total Email],[TotalAudioIP] as [Total Audio IP],[TotalVideoIP] as [Total Video IP],[TotalStaffedTime] as [Total Staffed Time],[TotalInteractionTime] as [Total Interaction Time],
+CONVERT(char(8),DATEADD(second,CAST(ROUND(isnull(((DATEPART(hh,[TotalInteractionTime]) * 3600 +DATEPART(mi, [TotalInteractionTime]) * 60 + DATEPART(ss,[TotalInteractionTime]))/cast(nullif([TotalInteraction],0) as decimal)),0),0) as INT),0),108) as [Avg Interaction Time],[TotalVoiceTime] as [Total Voice Time],
+CONVERT(char(8),DATEADD(second,CAST(ROUND(isnull(((DATEPART(hh,[TotalVoiceTime]) * 3600 +DATEPART(mi, [TotalVoiceTime]) * 60 + DATEPART(ss,[TotalVoiceTime]))/cast(nullif([TotalVoice],0) as decimal)),0),0) as INT),0),108) as [Avg Voice Time],[TotalChatTime] as [Total Chat Time],
+CONVERT(char(8),DATEADD(second,CAST(ROUND(isnull(((DATEPART(hh,[TotalChatTime]) * 3600 +DATEPART(mi, [TotalChatTime]) * 60 + DATEPART(ss,[TotalChatTime]))/cast(nullif([TotalChat],0) as decimal)),0),0) as INT),0),108) as [Avg Chat Time],
+--[TotalSMTime] as [Total SM Time],
+--CONVERT(char(8),DATEADD(second,CAST(ROUND(isnull(((DATEPART(hh,[TotalSMTime]) * 3600 +DATEPART(mi, [TotalSMTime]) * 60 + DATEPART(ss,[TotalSMTime]))/cast(nullif([TotalSM],0) as decimal)),0),0) as INT),0),108) as [Avg SM Time],[TotalSMSTime] as [Total SMS Time],
+--CONVERT(char(8),DATEADD(second,CAST(ROUND(isnull(((DATEPART(hh,[TotalSMSTime]) * 3600 +DATEPART(mi, [TotalSMSTime]) * 60 + DATEPART(ss,[TotalSMSTime]))/cast(nullif([TotalSMS],0) as decimal)),0),0) as INT),0),108) as [Avg SMS Time],
+[TotalFaxTime] as [Total Fax Time],
+CONVERT(char(8),DATEADD(second,CAST(ROUND(isnull(((DATEPART(hh,[TotalFaxTime]) * 3600 +DATEPART(mi, [TotalFaxTime]) * 60 + DATEPART(ss,[TotalFaxTime]))/cast(nullif([TotalFax],0) as decimal)),0),0) as INT),0),108) as [Avg Fax Time],
+--[TotalEmailTime] as [Total Email Time],CONVERT(char(8),DATEADD(second,CAST(ROUND(isnull((( DATEPART(hh,[TotalEmailTime]) * 3600 +DATEPART(mi, [TotalEmailTime]) * 60 + DATEPART(ss,[TotalEmailTime]))/cast(nullif([TotalEmail],0) as decimal)),0),0) as INT),0),108) as [Avg Email Time],
+[TotalAudioIPTime] as [Total Audio IP Time],
+CONVERT(char(8),DATEADD(second,CAST(ROUND(isnull(((DATEPART(hh,[TotalAudioIPTime]) * 3600 +DATEPART(mi, [TotalAudioIPTime]) * 60 + DATEPART(ss,[TotalAudioIPTime]))/cast(nullif([TotalAudioIP],0) as decimal)),0),0) as INT),0),108) as [Avg Audio IP Time],[TotalVideoIPTime] as [Total Video IP Time],
+CONVERT(char(8),DATEADD(second,CAST(ROUND(isnull(((DATEPART(hh,[TotalVideoIPTime]) * 3600 +DATEPART(mi, [TotalVideoIPTime]) * 60 + DATEPART(ss,[TotalVideoIPTime]))/cast(nullif([TotalVideoIP],0) as decimal)),0),0) as INT),0),108) as[Avg Video IP Time],
+[TotalACWTime] as [Total ACW Time],[TotalAuxTime] as [Total Aux Time],[TotalExtIn] as [Total Ext In],[TotalExtOut] as [Total Ext Out],[TotalTransferIn] as [Total Transfer In],[TotalTransferOut] as [Total Transfer Out],[TotalConferenceIn] as [Total Conference In],[TotalConferenceOut] as [Total Conference Out] 
+FROM [dbo].[OCM_AgentSummaryReport] WITH(NOLOCK) WHERE [ReportDateTime] &gt;= 'ReportBeforeDate' 
+AND [ReportDateTime]&lt;= 'ReportAfterDate' AND [AgentID] like 'AgentIdCapturedFromUI';
+</t>
+  </si>
+  <si>
+    <t>01-10-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>02-10-2020 00:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -292,14 +391,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,7 +465,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -395,7 +500,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -579,22 +684,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7265625" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1"/>
+    <col min="4" max="4" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,24 +713,24 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>27</v>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -635,22 +740,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,18 +769,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>27</v>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -684,28 +789,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" customWidth="1"/>
+    <col min="9" max="9" width="15.81640625" customWidth="1"/>
+    <col min="10" max="10" width="20.1796875" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,340 +821,340 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="3" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="J12" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="J15" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="4" t="s">
+      <c r="J16" s="3" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1059,22 +1164,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,27 +1190,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1114,22 +1219,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1140,27 +1245,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1169,22 +1274,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1198,18 +1303,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>27</v>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1218,27 +1323,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" customWidth="1"/>
+    <col min="9" max="9" width="18.26953125" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,211 +1356,211 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
         <v>59</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
         <v>34</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1463,76 +1570,70 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="66.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="66.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.81640625" customWidth="1"/>
+    <col min="7" max="7" width="43.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ocms/src/test/resources/TestData/OCMAgentSummaryReportData.xlsx
+++ b/ocms/src/test/resources/TestData/OCMAgentSummaryReportData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F17354-601A-415A-A485-CB1E0278AFA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF44C093-3FDE-4850-AEF3-CB26C1F2FD71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>Murali MS</t>
-  </si>
-  <si>
     <t>30-03-2020 00:00:00</t>
   </si>
   <si>
@@ -140,12 +137,6 @@
     <t>Team Name</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>QA</t>
   </si>
   <si>
@@ -206,9 +197,6 @@
     <t>Search String2</t>
   </si>
   <si>
-    <t xml:space="preserve">Murali </t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -222,6 +210,33 @@
   </si>
   <si>
     <t>QueryDrillGridOne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT [AgentID] as [Agent ID],[AgentName] as [Agent Name],[LoginDateTime] as [Login Date Time],[LogoutDateTime] as [Logout Date Time],[SkillList] as [Skill List],[SkillNameList] as [Skill Name List],
+[StationID] as [Station ID],[TotalVoice] as [Total Voice],[TotalInteraction] as [Total Interaction],[TotalChat] as [Total Chat],
+[TotalSM] as [Total SM],[TotalSMS] as [Total SMS],isnull([TotalFax],0) as [Total Fax],[TotalEmail] as [Total Email],[TotalAudioIP] as [Total Audio IP],[TotalVideoIP] as [Total Video IP],[TotalStaffedTime] as [Total Staffed Time],[TotalInteractionTime] as [Total Interaction Time],
+CONVERT(char(8),DATEADD(second,CAST(ROUND(isnull(((DATEPART(hh,[TotalInteractionTime]) * 3600 +DATEPART(mi, [TotalInteractionTime]) * 60 + DATEPART(ss,[TotalInteractionTime]))/cast(nullif([TotalInteraction],0) as decimal)),0),0) as INT),0),108) as [Avg Interaction Time],[TotalVoiceTime] as [Total Voice Time],
+CONVERT(char(8),DATEADD(second,CAST(ROUND(isnull(((DATEPART(hh,[TotalVoiceTime]) * 3600 +DATEPART(mi, [TotalVoiceTime]) * 60 + DATEPART(ss,[TotalVoiceTime]))/cast(nullif([TotalVoice],0) as decimal)),0),0) as INT),0),108) as [Avg Voice Time],[TotalChatTime] as [Total Chat Time],
+CONVERT(char(8),DATEADD(second,CAST(ROUND(isnull(((DATEPART(hh,[TotalChatTime]) * 3600 +DATEPART(mi, [TotalChatTime]) * 60 + DATEPART(ss,[TotalChatTime]))/cast(nullif([TotalChat],0) as decimal)),0),0) as INT),0),108) as [Avg Chat Time],
+--[TotalSMTime] as [Total SM Time],
+--CONVERT(char(8),DATEADD(second,CAST(ROUND(isnull(((DATEPART(hh,[TotalSMTime]) * 3600 +DATEPART(mi, [TotalSMTime]) * 60 + DATEPART(ss,[TotalSMTime]))/cast(nullif([TotalSM],0) as decimal)),0),0) as INT),0),108) as [Avg SM Time],[TotalSMSTime] as [Total SMS Time],
+--CONVERT(char(8),DATEADD(second,CAST(ROUND(isnull(((DATEPART(hh,[TotalSMSTime]) * 3600 +DATEPART(mi, [TotalSMSTime]) * 60 + DATEPART(ss,[TotalSMSTime]))/cast(nullif([TotalSMS],0) as decimal)),0),0) as INT),0),108) as [Avg SMS Time],
+[TotalFaxTime] as [Total Fax Time],
+CONVERT(char(8),DATEADD(second,CAST(ROUND(isnull(((DATEPART(hh,[TotalFaxTime]) * 3600 +DATEPART(mi, [TotalFaxTime]) * 60 + DATEPART(ss,[TotalFaxTime]))/cast(nullif([TotalFax],0) as decimal)),0),0) as INT),0),108) as [Avg Fax Time],
+--[TotalEmailTime] as [Total Email Time],CONVERT(char(8),DATEADD(second,CAST(ROUND(isnull((( DATEPART(hh,[TotalEmailTime]) * 3600 +DATEPART(mi, [TotalEmailTime]) * 60 + DATEPART(ss,[TotalEmailTime]))/cast(nullif([TotalEmail],0) as decimal)),0),0) as INT),0),108) as [Avg Email Time],
+[TotalAudioIPTime] as [Total Audio IP Time],
+CONVERT(char(8),DATEADD(second,CAST(ROUND(isnull(((DATEPART(hh,[TotalAudioIPTime]) * 3600 +DATEPART(mi, [TotalAudioIPTime]) * 60 + DATEPART(ss,[TotalAudioIPTime]))/cast(nullif([TotalAudioIP],0) as decimal)),0),0) as INT),0),108) as [Avg Audio IP Time],[TotalVideoIPTime] as [Total Video IP Time],
+CONVERT(char(8),DATEADD(second,CAST(ROUND(isnull(((DATEPART(hh,[TotalVideoIPTime]) * 3600 +DATEPART(mi, [TotalVideoIPTime]) * 60 + DATEPART(ss,[TotalVideoIPTime]))/cast(nullif([TotalVideoIP],0) as decimal)),0),0) as INT),0),108) as[Avg Video IP Time],
+[TotalACWTime] as [Total ACW Time],[TotalAuxTime] as [Total Aux Time],[TotalExtIn] as [Total Ext In],[TotalExtOut] as [Total Ext Out],[TotalTransferIn] as [Total Transfer In],[TotalTransferOut] as [Total Transfer Out],[TotalConferenceIn] as [Total Conference In],[TotalConferenceOut] as [Total Conference Out] 
+FROM [dbo].[OCM_AgentSummaryReport] WITH(NOLOCK) WHERE [ReportDateTime] &gt;= 'ReportBeforeDate' 
+AND [ReportDateTime]&lt;= 'ReportAfterDate' AND [AgentID] like 'AgentIdCapturedFromUI';
+</t>
+  </si>
+  <si>
+    <t>01-01-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>30-01-2021 00:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">SELECT M.[AgentID] as 'Agent ID', A.[AgentName] as 'Agent Name' ,A.TeamName as 'Team Name',A.SupervisorName 'Supervisor Name' ,SUM([TotalInteraction]) [Total Interaction] ,SUM([TotalVoice]) [Total Voice],SUM(TotalChat) [Total Chat],
@@ -321,35 +336,20 @@
   TAB2.TotalStaffedTime,Skills.SkillLists 
   --ORDER BY LoginDateTime ASC
   ) M  INNER JOIN fn_AgentHierarchy('na',1,1) A on A.AgentId=M.AgentID
-  GROUP BY M.[AgentID],A.[AgentName],A.TeamName,A.SupervisorName
+  GROUP BY M.[AgentID],A.[AgentName],A.TeamName,A.SupervisorName ORDER BY A.[AgentName] Asc
 </t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT [AgentID] as [Agent ID],[AgentName] as [Agent Name],[LoginDateTime] as [Login Date Time],[LogoutDateTime] as [Logout Date Time],[SkillList] as [Skill List],[SkillNameList] as [Skill Name List],
-[StationID] as [Station ID],[TotalVoice] as [Total Voice],[TotalInteraction] as [Total Interaction],[TotalChat] as [Total Chat],
-[TotalSM] as [Total SM],[TotalSMS] as [Total SMS],isnull([TotalFax],0) as [Total Fax],[TotalEmail] as [Total Email],[TotalAudioIP] as [Total Audio IP],[TotalVideoIP] as [Total Video IP],[TotalStaffedTime] as [Total Staffed Time],[TotalInteractionTime] as [Total Interaction Time],
-CONVERT(char(8),DATEADD(second,CAST(ROUND(isnull(((DATEPART(hh,[TotalInteractionTime]) * 3600 +DATEPART(mi, [TotalInteractionTime]) * 60 + DATEPART(ss,[TotalInteractionTime]))/cast(nullif([TotalInteraction],0) as decimal)),0),0) as INT),0),108) as [Avg Interaction Time],[TotalVoiceTime] as [Total Voice Time],
-CONVERT(char(8),DATEADD(second,CAST(ROUND(isnull(((DATEPART(hh,[TotalVoiceTime]) * 3600 +DATEPART(mi, [TotalVoiceTime]) * 60 + DATEPART(ss,[TotalVoiceTime]))/cast(nullif([TotalVoice],0) as decimal)),0),0) as INT),0),108) as [Avg Voice Time],[TotalChatTime] as [Total Chat Time],
-CONVERT(char(8),DATEADD(second,CAST(ROUND(isnull(((DATEPART(hh,[TotalChatTime]) * 3600 +DATEPART(mi, [TotalChatTime]) * 60 + DATEPART(ss,[TotalChatTime]))/cast(nullif([TotalChat],0) as decimal)),0),0) as INT),0),108) as [Avg Chat Time],
---[TotalSMTime] as [Total SM Time],
---CONVERT(char(8),DATEADD(second,CAST(ROUND(isnull(((DATEPART(hh,[TotalSMTime]) * 3600 +DATEPART(mi, [TotalSMTime]) * 60 + DATEPART(ss,[TotalSMTime]))/cast(nullif([TotalSM],0) as decimal)),0),0) as INT),0),108) as [Avg SM Time],[TotalSMSTime] as [Total SMS Time],
---CONVERT(char(8),DATEADD(second,CAST(ROUND(isnull(((DATEPART(hh,[TotalSMSTime]) * 3600 +DATEPART(mi, [TotalSMSTime]) * 60 + DATEPART(ss,[TotalSMSTime]))/cast(nullif([TotalSMS],0) as decimal)),0),0) as INT),0),108) as [Avg SMS Time],
-[TotalFaxTime] as [Total Fax Time],
-CONVERT(char(8),DATEADD(second,CAST(ROUND(isnull(((DATEPART(hh,[TotalFaxTime]) * 3600 +DATEPART(mi, [TotalFaxTime]) * 60 + DATEPART(ss,[TotalFaxTime]))/cast(nullif([TotalFax],0) as decimal)),0),0) as INT),0),108) as [Avg Fax Time],
---[TotalEmailTime] as [Total Email Time],CONVERT(char(8),DATEADD(second,CAST(ROUND(isnull((( DATEPART(hh,[TotalEmailTime]) * 3600 +DATEPART(mi, [TotalEmailTime]) * 60 + DATEPART(ss,[TotalEmailTime]))/cast(nullif([TotalEmail],0) as decimal)),0),0) as INT),0),108) as [Avg Email Time],
-[TotalAudioIPTime] as [Total Audio IP Time],
-CONVERT(char(8),DATEADD(second,CAST(ROUND(isnull(((DATEPART(hh,[TotalAudioIPTime]) * 3600 +DATEPART(mi, [TotalAudioIPTime]) * 60 + DATEPART(ss,[TotalAudioIPTime]))/cast(nullif([TotalAudioIP],0) as decimal)),0),0) as INT),0),108) as [Avg Audio IP Time],[TotalVideoIPTime] as [Total Video IP Time],
-CONVERT(char(8),DATEADD(second,CAST(ROUND(isnull(((DATEPART(hh,[TotalVideoIPTime]) * 3600 +DATEPART(mi, [TotalVideoIPTime]) * 60 + DATEPART(ss,[TotalVideoIPTime]))/cast(nullif([TotalVideoIP],0) as decimal)),0),0) as INT),0),108) as[Avg Video IP Time],
-[TotalACWTime] as [Total ACW Time],[TotalAuxTime] as [Total Aux Time],[TotalExtIn] as [Total Ext In],[TotalExtOut] as [Total Ext Out],[TotalTransferIn] as [Total Transfer In],[TotalTransferOut] as [Total Transfer Out],[TotalConferenceIn] as [Total Conference In],[TotalConferenceOut] as [Total Conference Out] 
-FROM [dbo].[OCM_AgentSummaryReport] WITH(NOLOCK) WHERE [ReportDateTime] &gt;= 'ReportBeforeDate' 
-AND [ReportDateTime]&lt;= 'ReportAfterDate' AND [AgentID] like 'AgentIdCapturedFromUI';
-</t>
-  </si>
-  <si>
-    <t>01-10-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>02-10-2020 00:00:00</t>
+    <t>Abrahma Villers</t>
+  </si>
+  <si>
+    <t>Villers</t>
+  </si>
+  <si>
+    <t>Abrahma</t>
+  </si>
+  <si>
+    <t>Automation</t>
   </si>
 </sst>
 </file>
@@ -691,15 +691,15 @@
       <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,10 +713,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -727,10 +727,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -747,15 +747,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -769,7 +769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -793,24 +793,24 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" customWidth="1"/>
-    <col min="9" max="9" width="15.81640625" customWidth="1"/>
-    <col min="10" max="10" width="20.1796875" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" customWidth="1"/>
+    <col min="10" max="10" width="20.21875" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,16 +836,16 @@
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -856,10 +856,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -871,10 +871,10 @@
         <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -885,10 +885,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -897,10 +897,10 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -911,10 +911,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -926,7 +926,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -937,10 +937,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -952,7 +952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -963,22 +963,22 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
         <v>27</v>
       </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,22 +989,22 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1015,146 +1015,146 @@
         <v>5</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="3" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J13" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="3" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="2" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="J16" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1171,15 +1171,15 @@
       <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1207,10 +1207,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1226,15 +1226,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1262,10 +1262,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1281,15 +1281,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1326,26 +1326,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" customWidth="1"/>
-    <col min="9" max="9" width="18.26953125" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" customWidth="1"/>
-    <col min="11" max="11" width="16.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1374,13 +1374,13 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1391,10 +1391,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -1406,30 +1406,30 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -1438,45 +1438,45 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1487,10 +1487,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -1499,13 +1499,13 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1516,10 +1516,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -1528,13 +1528,13 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1545,10 +1545,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -1557,10 +1557,10 @@
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1573,21 +1573,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.81640625" customWidth="1"/>
-    <col min="7" max="7" width="43.26953125" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" customWidth="1"/>
+    <col min="7" max="7" width="43.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1607,30 +1607,30 @@
         <v>20</v>
       </c>
       <c r="G1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/OCMAgentSummaryReportData.xlsx
+++ b/ocms/src/test/resources/TestData/OCMAgentSummaryReportData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF44C093-3FDE-4850-AEF3-CB26C1F2FD71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B86F81-889C-4220-9B1F-8A94BAA130D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="68">
   <si>
     <t>Report Channel</t>
   </si>
@@ -92,36 +92,12 @@
     <t>Query</t>
   </si>
   <si>
-    <t>X Y</t>
-  </si>
-  <si>
-    <t>Line</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>30-03-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>31-03-2020 00:00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ends with </t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
     <t>Agent ID</t>
   </si>
   <si>
-    <t>Line Agent1</t>
-  </si>
-  <si>
     <t>Is not equal to</t>
   </si>
   <si>
@@ -195,9 +171,6 @@
   </si>
   <si>
     <t>Search String2</t>
-  </si>
-  <si>
-    <t>9</t>
   </si>
   <si>
     <t>India</t>
@@ -233,13 +206,43 @@
 </t>
   </si>
   <si>
-    <t>01-01-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>30-01-2021 00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT M.[AgentID] as 'Agent ID', A.[AgentName] as 'Agent Name' ,A.TeamName as 'Team Name',A.SupervisorName 'Supervisor Name' ,SUM([TotalInteraction]) [Total Interaction] ,SUM([TotalVoice]) [Total Voice],SUM(TotalChat) [Total Chat],
+    <t>Abrahma</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>28-10-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>20-10-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>15-11-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>Amy M</t>
+  </si>
+  <si>
+    <t>bot</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>chat</t>
+  </si>
+  <si>
+    <t>60093</t>
+  </si>
+  <si>
+    <t>Palak</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT M.[AgentID] as 'Agent ID', A.[AgentName] as 'Agent Name' ,A.TeamName as 'Org.Unit',A.SupervisorName 'Supervisor Name' ,SUM([TotalInteraction]) [Total Interaction] ,SUM([TotalVoice]) [Total Voice],SUM(TotalChat) [Total Chat],
 SUM([TotalAudioIP]) [Total Audio IP],SUM([TotalVideoIP]) [Total Video IP],SUM(TotalSM) [Total SM],SUM(TotalSMS) [Total SMS],SUM(isnull(TotalFax,0)) [Total Fax],SUM(TotalEmail) [Total Email],  
 [dbo].[SECONDSTOhhmmss](SUM ( DATEPART(hh,CONVERT(varchar, DATEADD(ms,M.TotalStaffedTime* 1000, 0), 108)) * 3600 +DATEPART(mi, CONVERT(varchar, DATEADD(ms, M.TotalStaffedTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar,DATEADD(ms,M.TotalStaffedTime* 1000, 0), 108)))) as [Total Staffed Time] ,     
 [dbo].[SECONDSTOhhmmss](SUM ( DATEPART(hh,CONVERT(varchar, DATEADD(ms, M.TotalInteractionTime* 1000, 0), 108)) * 3600 +DATEPART(mi,CONVERT(varchar, DATEADD(ms, M.TotalInteractionTime* 1000, 0), 108)) * 60 + DATEPART(ss,CONVERT(varchar,DATEADD(ms,M.TotalInteractionTime* 1000, 0), 108))))as [Total Interaction Time] ,   
@@ -340,23 +343,17 @@
 </t>
   </si>
   <si>
-    <t>Abrahma Villers</t>
-  </si>
-  <si>
-    <t>Villers</t>
-  </si>
-  <si>
-    <t>Abrahma</t>
-  </si>
-  <si>
-    <t>Automation</t>
+    <t>10-11-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>01-12-2021 00:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +366,12 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -688,7 +691,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,7 +716,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -727,10 +730,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -780,7 +783,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -793,7 +796,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -836,13 +839,13 @@
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -856,10 +859,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -868,10 +871,10 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -885,10 +888,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -897,7 +900,7 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -911,10 +914,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -923,7 +926,7 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -937,10 +940,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -949,7 +952,7 @@
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -963,19 +966,19 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -989,19 +992,19 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1015,10 +1018,10 @@
         <v>5</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1032,10 +1035,10 @@
         <v>5</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1049,10 +1052,10 @@
         <v>5</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1066,10 +1069,10 @@
         <v>5</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1083,10 +1086,10 @@
         <v>5</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1100,10 +1103,10 @@
         <v>5</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1117,10 +1120,10 @@
         <v>5</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1134,10 +1137,10 @@
         <v>5</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1151,13 +1154,14 @@
         <v>5</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1168,7 +1172,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1207,10 +1211,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +1227,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1262,10 +1266,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1282,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1314,7 +1318,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1326,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1374,10 +1378,10 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1391,10 +1395,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -1406,13 +1410,13 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1426,10 +1430,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -1438,13 +1442,13 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1458,22 +1462,22 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1487,10 +1491,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -1499,10 +1503,10 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1516,10 +1520,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -1528,10 +1532,10 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1545,10 +1549,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -1557,13 +1561,14 @@
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1573,7 +1578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1607,7 +1612,7 @@
         <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
@@ -1621,16 +1626,16 @@
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
